--- a/dummy/CO_12L23.xlsx
+++ b/dummy/CO_12L23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01934L744\Box\Baijnath Data\Project 2023\Nidhi\contract - v4.1\dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B69EC-7B29-46F5-B786-2462A637A525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EBBB5-8D1E-43E1-8017-47407D132CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4810" yWindow="2720" windowWidth="14390" windowHeight="7360" xr2:uid="{9E52E6F7-8580-458E-A137-D09E218E9A8F}"/>
+    <workbookView xWindow="2020" yWindow="3920" windowWidth="14390" windowHeight="7360" xr2:uid="{9E52E6F7-8580-458E-A137-D09E218E9A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Contract_ID</t>
   </si>
@@ -68,13 +68,19 @@
     <t>Contracted_Unit_Price</t>
   </si>
   <si>
-    <t>Contract_Payterms</t>
-  </si>
-  <si>
     <t>Line_Item_Desc</t>
   </si>
   <si>
     <t>Supplier</t>
+  </si>
+  <si>
+    <t>Payment_Terms_Contract</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -110,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,123 +433,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248CB387-E88E-48BA-8B29-E195F0007F97}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>41849</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44196</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>500</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>41849</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44196</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>400</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>41849</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44196</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>300</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>41849</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44196</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>300</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>